--- a/Statistics_Summary.xlsx
+++ b/Statistics_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FTrevisan\Documents\GitHub\13C-Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C61069-248B-407C-98C7-17D5BE91DACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4745CD-E8E2-44E8-9DC3-2C19761D36E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23220" yWindow="4560" windowWidth="14400" windowHeight="7365" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoWayAnova" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="324">
   <si>
     <t>Treatment</t>
   </si>
@@ -998,6 +998,27 @@
   </si>
   <si>
     <t>Time effect</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>bcd</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>de</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1097,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1192,6 +1213,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1207,21 +1250,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5736,530 +5775,1034 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24FB93C6-0778-4F99-B1A3-133ED5E9BF6D}">
-  <dimension ref="A7:DC14"/>
+  <dimension ref="A2:BF9"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B10" sqref="B10:H13"/>
+      <selection pane="topRight" activeCell="BE11" sqref="BE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="20"/>
+    <col min="16" max="16" width="8.7265625" style="20"/>
+    <col min="23" max="23" width="8.7265625" style="20"/>
+    <col min="30" max="30" width="8.7265625" style="20"/>
+    <col min="37" max="37" width="8.7265625" style="20"/>
+    <col min="44" max="44" width="8.7265625" style="20"/>
+    <col min="51" max="51" width="8.7265625" style="20"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="7" t="s">
+    <row r="2" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="Q7" s="8" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="AD7" s="8" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="8"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8"/>
-      <c r="AK7" s="8"/>
-      <c r="AR7" s="8" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="18" t="s">
         <v>310</v>
       </c>
-      <c r="AS7" s="8"/>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="8"/>
-      <c r="AV7" s="8"/>
-      <c r="AW7" s="8"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="BF7" s="8" t="s">
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="BG7" s="8"/>
-      <c r="BH7" s="8"/>
-      <c r="BI7" s="8"/>
-      <c r="BJ7" s="8"/>
-      <c r="BK7" s="8"/>
-      <c r="BL7" s="8"/>
-      <c r="BM7" s="8"/>
-      <c r="BT7" s="8" t="s">
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="BU7" s="8"/>
-      <c r="BV7" s="8"/>
-      <c r="BW7" s="8"/>
-      <c r="BX7" s="8"/>
-      <c r="BY7" s="8"/>
-      <c r="BZ7" s="8"/>
-      <c r="CA7" s="8"/>
-      <c r="CH7" s="8" t="s">
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8"/>
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="CI7" s="8"/>
-      <c r="CJ7" s="8"/>
-      <c r="CK7" s="8"/>
-      <c r="CL7" s="8"/>
-      <c r="CM7" s="8"/>
-      <c r="CN7" s="8"/>
-      <c r="CO7" s="8"/>
-      <c r="CV7" s="8" t="s">
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8"/>
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8"/>
+      <c r="AW2" s="8"/>
+      <c r="AX2" s="8"/>
+      <c r="AY2" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="CW7" s="8"/>
-      <c r="CX7" s="8"/>
-      <c r="CY7" s="8"/>
-      <c r="CZ7" s="8"/>
-      <c r="DA7" s="8"/>
-      <c r="DB7" s="8"/>
-      <c r="DC7" s="8"/>
-    </row>
-    <row r="8" spans="1:107" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="17"/>
-      <c r="B8" s="18">
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8"/>
+    </row>
+    <row r="3" spans="1:58" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E3">
         <v>7</v>
       </c>
-      <c r="F8" s="18">
+      <c r="F3">
         <v>9</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G3">
         <v>11</v>
       </c>
-      <c r="H8" s="18">
-        <v>14</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="Q8" s="18">
+      <c r="H3">
+        <v>14</v>
+      </c>
+      <c r="I3">
         <v>0</v>
       </c>
-      <c r="R8" s="18">
+      <c r="J3">
         <v>1</v>
       </c>
-      <c r="S8" s="18">
+      <c r="K3">
         <v>3</v>
       </c>
-      <c r="T8" s="18">
+      <c r="L3">
         <v>7</v>
       </c>
-      <c r="U8" s="18">
+      <c r="M3">
         <v>9</v>
       </c>
-      <c r="V8" s="18">
+      <c r="N3">
         <v>11</v>
       </c>
-      <c r="W8" s="18">
-        <v>14</v>
-      </c>
-      <c r="X8" s="8"/>
-      <c r="AD8" s="18">
+      <c r="O3">
+        <v>14</v>
+      </c>
+      <c r="P3">
         <v>0</v>
       </c>
-      <c r="AE8" s="18">
-        <v>1</v>
-      </c>
-      <c r="AF8" s="18">
-        <v>3</v>
-      </c>
-      <c r="AG8" s="18">
-        <v>6</v>
-      </c>
-      <c r="AH8" s="18">
-        <v>8</v>
-      </c>
-      <c r="AI8" s="18">
-        <v>10</v>
-      </c>
-      <c r="AJ8" s="18">
-        <v>13</v>
-      </c>
-      <c r="AK8" s="8"/>
-      <c r="AR8" s="18"/>
-      <c r="AS8" s="18"/>
-      <c r="AT8" s="18"/>
-      <c r="AU8" s="18"/>
-      <c r="AV8" s="18"/>
-      <c r="AW8" s="18"/>
-      <c r="AX8" s="18"/>
-      <c r="AY8" s="8"/>
-      <c r="BF8" s="18"/>
-      <c r="BG8" s="18"/>
-      <c r="BH8" s="18"/>
-      <c r="BI8" s="18"/>
-      <c r="BJ8" s="18"/>
-      <c r="BK8" s="18"/>
-      <c r="BL8" s="18"/>
-      <c r="BM8" s="8"/>
-      <c r="BT8" s="18"/>
-      <c r="BU8" s="18"/>
-      <c r="BV8" s="18"/>
-      <c r="BW8" s="18"/>
-      <c r="BX8" s="18"/>
-      <c r="BY8" s="18"/>
-      <c r="BZ8" s="18"/>
-      <c r="CA8" s="8"/>
-      <c r="CH8" s="18"/>
-      <c r="CI8" s="18"/>
-      <c r="CJ8" s="18"/>
-      <c r="CK8" s="18"/>
-      <c r="CL8" s="18"/>
-      <c r="CM8" s="18"/>
-      <c r="CN8" s="18"/>
-      <c r="CO8" s="8"/>
-      <c r="CV8" s="18"/>
-      <c r="CW8" s="18"/>
-      <c r="CX8" s="18"/>
-      <c r="CY8" s="18"/>
-      <c r="CZ8" s="18"/>
-      <c r="DA8" s="18"/>
-      <c r="DB8" s="18"/>
-      <c r="DC8" s="8"/>
-    </row>
-    <row r="9" spans="1:107" x14ac:dyDescent="0.35">
-      <c r="A9" s="19" t="s">
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>5</v>
+      </c>
+      <c r="S3">
+        <v>7</v>
+      </c>
+      <c r="T3">
+        <v>9</v>
+      </c>
+      <c r="U3">
+        <v>12</v>
+      </c>
+      <c r="V3">
+        <v>14</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>5</v>
+      </c>
+      <c r="Z3">
+        <v>7</v>
+      </c>
+      <c r="AA3">
+        <v>9</v>
+      </c>
+      <c r="AB3">
+        <v>12</v>
+      </c>
+      <c r="AC3">
+        <v>14</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <v>4</v>
+      </c>
+      <c r="AG3">
+        <v>7</v>
+      </c>
+      <c r="AH3">
+        <v>9</v>
+      </c>
+      <c r="AI3">
+        <v>11</v>
+      </c>
+      <c r="AJ3">
+        <v>14</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>2</v>
+      </c>
+      <c r="AM3">
+        <v>4</v>
+      </c>
+      <c r="AN3">
+        <v>7</v>
+      </c>
+      <c r="AO3">
+        <v>9</v>
+      </c>
+      <c r="AP3">
+        <v>11</v>
+      </c>
+      <c r="AQ3">
+        <v>14</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>2</v>
+      </c>
+      <c r="AT3">
+        <v>4</v>
+      </c>
+      <c r="AU3">
+        <v>7</v>
+      </c>
+      <c r="AV3">
+        <v>9</v>
+      </c>
+      <c r="AW3">
+        <v>11</v>
+      </c>
+      <c r="AX3">
+        <v>14</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>2</v>
+      </c>
+      <c r="BA3">
+        <v>4</v>
+      </c>
+      <c r="BB3">
+        <v>7</v>
+      </c>
+      <c r="BC3">
+        <v>9</v>
+      </c>
+      <c r="BD3">
+        <v>11</v>
+      </c>
+      <c r="BE3">
+        <v>14</v>
+      </c>
+      <c r="BF3" s="8"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A4" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="8"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="8"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="8"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19"/>
-      <c r="AY9" s="8"/>
-      <c r="BF9" s="19"/>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19"/>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="8"/>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19"/>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="BZ9" s="19"/>
-      <c r="CA9" s="8"/>
-      <c r="CH9" s="19"/>
-      <c r="CI9" s="19"/>
-      <c r="CJ9" s="19"/>
-      <c r="CK9" s="19"/>
-      <c r="CL9" s="19"/>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="8"/>
-      <c r="CV9" s="19"/>
-      <c r="CW9" s="19"/>
-      <c r="CX9" s="19"/>
-      <c r="CY9" s="19"/>
-      <c r="CZ9" s="19"/>
-      <c r="DA9" s="19"/>
-      <c r="DB9" s="19"/>
-      <c r="DC9" s="8"/>
-    </row>
-    <row r="10" spans="1:107" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+      <c r="AG4" s="16"/>
+      <c r="AH4" s="16"/>
+      <c r="AI4" s="16"/>
+      <c r="AJ4" s="16"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="16"/>
+      <c r="BA4" s="16"/>
+      <c r="BB4" s="16"/>
+      <c r="BC4" s="16"/>
+      <c r="BD4" s="16"/>
+      <c r="BE4" s="16"/>
+      <c r="BF4" s="8"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="I10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="8"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="8"/>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8"/>
-      <c r="AK10" s="8"/>
-      <c r="AR10" s="8"/>
-      <c r="AS10" s="8"/>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="8"/>
-      <c r="AW10" s="8"/>
-      <c r="AX10" s="8"/>
-      <c r="AY10" s="8"/>
-      <c r="BF10" s="8"/>
-      <c r="BG10" s="8"/>
-      <c r="BH10" s="8"/>
-      <c r="BI10" s="8"/>
-      <c r="BJ10" s="8"/>
-      <c r="BK10" s="8"/>
-      <c r="BL10" s="8"/>
-      <c r="BM10" s="8"/>
-      <c r="BT10" s="8"/>
-      <c r="BU10" s="8"/>
-      <c r="BV10" s="8"/>
-      <c r="BW10" s="8"/>
-      <c r="BX10" s="8"/>
-      <c r="BY10" s="8"/>
-      <c r="BZ10" s="8"/>
-      <c r="CA10" s="8"/>
-      <c r="CH10" s="8"/>
-      <c r="CI10" s="8"/>
-      <c r="CJ10" s="8"/>
-      <c r="CK10" s="8"/>
-      <c r="CL10" s="8"/>
-      <c r="CM10" s="8"/>
-      <c r="CN10" s="8"/>
-      <c r="CO10" s="8"/>
-      <c r="CV10" s="8"/>
-      <c r="CW10" s="8"/>
-      <c r="CX10" s="8"/>
-      <c r="CY10" s="8"/>
-      <c r="CZ10" s="8"/>
-      <c r="DA10" s="8"/>
-      <c r="DB10" s="8"/>
-      <c r="DC10" s="8"/>
-    </row>
-    <row r="11" spans="1:107" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
+      <c r="B5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" t="s">
+        <v>318</v>
+      </c>
+      <c r="E5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I5" t="s">
+        <v>298</v>
+      </c>
+      <c r="J5" t="s">
+        <v>318</v>
+      </c>
+      <c r="K5" t="s">
+        <v>298</v>
+      </c>
+      <c r="L5" t="s">
+        <v>300</v>
+      </c>
+      <c r="M5" t="s">
+        <v>300</v>
+      </c>
+      <c r="N5" t="s">
+        <v>303</v>
+      </c>
+      <c r="O5" t="s">
+        <v>300</v>
+      </c>
+      <c r="P5" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>298</v>
+      </c>
+      <c r="R5" t="s">
+        <v>298</v>
+      </c>
+      <c r="S5" t="s">
+        <v>298</v>
+      </c>
+      <c r="T5" t="s">
+        <v>303</v>
+      </c>
+      <c r="U5" t="s">
+        <v>300</v>
+      </c>
+      <c r="V5" t="s">
+        <v>300</v>
+      </c>
+      <c r="W5" t="s">
+        <v>298</v>
+      </c>
+      <c r="X5" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>298</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>298</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>298</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>298</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>298</v>
+      </c>
+      <c r="BF5" s="8"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" t="s">
+        <v>303</v>
+      </c>
+      <c r="G6" t="s">
+        <v>303</v>
+      </c>
+      <c r="H6" t="s">
+        <v>321</v>
+      </c>
+      <c r="I6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J6" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" t="s">
+        <v>298</v>
+      </c>
+      <c r="L6" t="s">
+        <v>300</v>
+      </c>
+      <c r="M6" t="s">
+        <v>300</v>
+      </c>
+      <c r="N6" t="s">
+        <v>303</v>
+      </c>
+      <c r="O6" t="s">
+        <v>300</v>
+      </c>
+      <c r="P6" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>298</v>
+      </c>
+      <c r="R6" t="s">
+        <v>298</v>
+      </c>
+      <c r="S6" t="s">
+        <v>298</v>
+      </c>
+      <c r="T6" t="s">
+        <v>302</v>
+      </c>
+      <c r="U6" t="s">
+        <v>300</v>
+      </c>
+      <c r="V6" t="s">
+        <v>300</v>
+      </c>
+      <c r="W6" t="s">
+        <v>298</v>
+      </c>
+      <c r="X6" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>298</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>298</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>298</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>298</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>298</v>
+      </c>
+      <c r="BF6" s="8"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="8"/>
-      <c r="AG11" s="8"/>
-      <c r="AH11" s="8"/>
-      <c r="AI11" s="8"/>
-      <c r="AJ11" s="8"/>
-      <c r="AK11" s="8"/>
-      <c r="AR11" s="8"/>
-      <c r="AS11" s="8"/>
-      <c r="AT11" s="8"/>
-      <c r="AU11" s="8"/>
-      <c r="AV11" s="8"/>
-      <c r="AW11" s="8"/>
-      <c r="AX11" s="8"/>
-      <c r="AY11" s="8"/>
-      <c r="BF11" s="8"/>
-      <c r="BG11" s="8"/>
-      <c r="BH11" s="8"/>
-      <c r="BI11" s="8"/>
-      <c r="BJ11" s="8"/>
-      <c r="BK11" s="8"/>
-      <c r="BL11" s="8"/>
-      <c r="BM11" s="8"/>
-      <c r="BT11" s="8"/>
-      <c r="BU11" s="8"/>
-      <c r="BV11" s="8"/>
-      <c r="BW11" s="8"/>
-      <c r="BX11" s="8"/>
-      <c r="BY11" s="8"/>
-      <c r="BZ11" s="8"/>
-      <c r="CA11" s="8"/>
-      <c r="CH11" s="8"/>
-      <c r="CI11" s="8"/>
-      <c r="CJ11" s="8"/>
-      <c r="CK11" s="8"/>
-      <c r="CL11" s="8"/>
-      <c r="CM11" s="8"/>
-      <c r="CN11" s="8"/>
-      <c r="CO11" s="8"/>
-      <c r="CV11" s="8"/>
-      <c r="CW11" s="8"/>
-      <c r="CX11" s="8"/>
-      <c r="CY11" s="8"/>
-      <c r="CZ11" s="8"/>
-      <c r="DA11" s="8"/>
-      <c r="DB11" s="8"/>
-      <c r="DC11" s="8"/>
-    </row>
-    <row r="12" spans="1:107" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="8"/>
-      <c r="AG12" s="8"/>
-      <c r="AH12" s="8"/>
-      <c r="AI12" s="8"/>
-      <c r="AJ12" s="8"/>
-      <c r="AK12" s="8"/>
-      <c r="AR12" s="8"/>
-      <c r="AS12" s="8"/>
-      <c r="AT12" s="8"/>
-      <c r="AU12" s="8"/>
-      <c r="AV12" s="8"/>
-      <c r="AW12" s="8"/>
-      <c r="AX12" s="8"/>
-      <c r="AY12" s="8"/>
-      <c r="BF12" s="8"/>
-      <c r="BG12" s="8"/>
-      <c r="BH12" s="8"/>
-      <c r="BI12" s="8"/>
-      <c r="BJ12" s="8"/>
-      <c r="BK12" s="8"/>
-      <c r="BL12" s="8"/>
-      <c r="BM12" s="8"/>
-      <c r="BT12" s="8"/>
-      <c r="BU12" s="8"/>
-      <c r="BV12" s="8"/>
-      <c r="BW12" s="8"/>
-      <c r="BX12" s="8"/>
-      <c r="BY12" s="8"/>
-      <c r="BZ12" s="8"/>
-      <c r="CA12" s="8"/>
-      <c r="CH12" s="8"/>
-      <c r="CI12" s="8"/>
-      <c r="CJ12" s="8"/>
-      <c r="CK12" s="8"/>
-      <c r="CL12" s="8"/>
-      <c r="CM12" s="8"/>
-      <c r="CN12" s="8"/>
-      <c r="CO12" s="8"/>
-      <c r="CV12" s="8"/>
-      <c r="CW12" s="8"/>
-      <c r="CX12" s="8"/>
-      <c r="CY12" s="8"/>
-      <c r="CZ12" s="8"/>
-      <c r="DA12" s="8"/>
-      <c r="DB12" s="8"/>
-      <c r="DC12" s="8"/>
-    </row>
-    <row r="13" spans="1:107" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="14" t="s">
+      <c r="B7" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G7" t="s">
+        <v>298</v>
+      </c>
+      <c r="H7" t="s">
+        <v>298</v>
+      </c>
+      <c r="I7" t="s">
+        <v>300</v>
+      </c>
+      <c r="J7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L7" t="s">
+        <v>298</v>
+      </c>
+      <c r="M7" t="s">
+        <v>298</v>
+      </c>
+      <c r="N7" t="s">
+        <v>298</v>
+      </c>
+      <c r="O7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>298</v>
+      </c>
+      <c r="R7" t="s">
+        <v>298</v>
+      </c>
+      <c r="S7" t="s">
+        <v>298</v>
+      </c>
+      <c r="T7" t="s">
+        <v>298</v>
+      </c>
+      <c r="U7" t="s">
+        <v>298</v>
+      </c>
+      <c r="V7" t="s">
+        <v>298</v>
+      </c>
+      <c r="W7" t="s">
+        <v>298</v>
+      </c>
+      <c r="X7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>302</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>298</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>298</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>298</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>298</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>298</v>
+      </c>
+      <c r="BF7" s="8"/>
+    </row>
+    <row r="8" spans="1:58" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="I13" s="8"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="8"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="8"/>
-      <c r="AR13" s="16"/>
-      <c r="AS13" s="16"/>
-      <c r="AT13" s="16"/>
-      <c r="AU13" s="16"/>
-      <c r="AV13" s="16"/>
-      <c r="AW13" s="16"/>
-      <c r="AX13" s="16"/>
-      <c r="AY13" s="8"/>
-      <c r="BF13" s="16"/>
-      <c r="BG13" s="16"/>
-      <c r="BH13" s="16"/>
-      <c r="BI13" s="16"/>
-      <c r="BJ13" s="16"/>
-      <c r="BK13" s="16"/>
-      <c r="BL13" s="16"/>
-      <c r="BM13" s="8"/>
-      <c r="BT13" s="16"/>
-      <c r="BU13" s="16"/>
-      <c r="BV13" s="16"/>
-      <c r="BW13" s="16"/>
-      <c r="BX13" s="16"/>
-      <c r="BY13" s="16"/>
-      <c r="BZ13" s="16"/>
-      <c r="CA13" s="8"/>
-      <c r="CH13" s="16"/>
-      <c r="CI13" s="16"/>
-      <c r="CJ13" s="16"/>
-      <c r="CK13" s="16"/>
-      <c r="CL13" s="16"/>
-      <c r="CM13" s="16"/>
-      <c r="CN13" s="16"/>
-      <c r="CO13" s="8"/>
-      <c r="CV13" s="16"/>
-      <c r="CW13" s="16"/>
-      <c r="CX13" s="16"/>
-      <c r="CY13" s="16"/>
-      <c r="CZ13" s="16"/>
-      <c r="DA13" s="16"/>
-      <c r="DB13" s="16"/>
-      <c r="DC13" s="8"/>
-    </row>
-    <row r="14" spans="1:107" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="B8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" t="s">
+        <v>300</v>
+      </c>
+      <c r="H8" t="s">
+        <v>300</v>
+      </c>
+      <c r="I8" t="s">
+        <v>318</v>
+      </c>
+      <c r="J8" t="s">
+        <v>298</v>
+      </c>
+      <c r="K8" t="s">
+        <v>298</v>
+      </c>
+      <c r="L8" t="s">
+        <v>298</v>
+      </c>
+      <c r="M8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N8" t="s">
+        <v>300</v>
+      </c>
+      <c r="O8" t="s">
+        <v>298</v>
+      </c>
+      <c r="P8" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>298</v>
+      </c>
+      <c r="R8" t="s">
+        <v>298</v>
+      </c>
+      <c r="S8" t="s">
+        <v>298</v>
+      </c>
+      <c r="T8" t="s">
+        <v>318</v>
+      </c>
+      <c r="U8" t="s">
+        <v>298</v>
+      </c>
+      <c r="V8" t="s">
+        <v>298</v>
+      </c>
+      <c r="W8" t="s">
+        <v>298</v>
+      </c>
+      <c r="X8" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>318</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>298</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>298</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>298</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>298</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>298</v>
+      </c>
+      <c r="BF8" s="8"/>
+    </row>
+    <row r="9" spans="1:58" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6269,9 +6812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0067E492-B4A5-4E75-AECD-DA5DE7917A5A}">
   <dimension ref="A2:BM9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N14" sqref="N14"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6366,32 +6909,32 @@
       <c r="BM2" s="8"/>
     </row>
     <row r="3" spans="1:65" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="17" t="s">
         <v>316</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="F3" s="10">
-        <v>6</v>
-      </c>
-      <c r="G3" s="10">
-        <v>8</v>
-      </c>
-      <c r="H3" s="10">
-        <v>10</v>
-      </c>
-      <c r="I3" s="10">
-        <v>13</v>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>307</v>
@@ -6420,153 +6963,153 @@
       <c r="R3" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3" s="10">
-        <v>1</v>
-      </c>
-      <c r="U3" s="10">
-        <v>3</v>
-      </c>
-      <c r="V3" s="10">
-        <v>6</v>
-      </c>
-      <c r="W3" s="10">
-        <v>8</v>
-      </c>
-      <c r="X3" s="10">
-        <v>10</v>
-      </c>
-      <c r="Y3" s="10">
-        <v>13</v>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3">
+        <v>7</v>
+      </c>
+      <c r="W3">
+        <v>9</v>
+      </c>
+      <c r="X3">
+        <v>12</v>
+      </c>
+      <c r="Y3">
+        <v>14</v>
       </c>
       <c r="Z3" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3">
         <v>0</v>
       </c>
-      <c r="AB3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="10">
-        <v>3</v>
-      </c>
-      <c r="AD3" s="10">
-        <v>6</v>
-      </c>
-      <c r="AE3" s="10">
-        <v>8</v>
-      </c>
-      <c r="AF3" s="10">
-        <v>10</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>13</v>
+      <c r="AB3">
+        <v>2</v>
+      </c>
+      <c r="AC3">
+        <v>5</v>
+      </c>
+      <c r="AD3">
+        <v>7</v>
+      </c>
+      <c r="AE3">
+        <v>9</v>
+      </c>
+      <c r="AF3">
+        <v>12</v>
+      </c>
+      <c r="AG3">
+        <v>14</v>
       </c>
       <c r="AH3" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="AI3" s="10">
+      <c r="AI3">
         <v>0</v>
       </c>
-      <c r="AJ3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="10">
-        <v>3</v>
-      </c>
-      <c r="AL3" s="10">
-        <v>6</v>
-      </c>
-      <c r="AM3" s="10">
-        <v>8</v>
-      </c>
-      <c r="AN3" s="10">
-        <v>10</v>
-      </c>
-      <c r="AO3" s="10">
-        <v>13</v>
+      <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <v>4</v>
+      </c>
+      <c r="AL3">
+        <v>7</v>
+      </c>
+      <c r="AM3">
+        <v>9</v>
+      </c>
+      <c r="AN3">
+        <v>11</v>
+      </c>
+      <c r="AO3">
+        <v>14</v>
       </c>
       <c r="AP3" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="AQ3" s="10">
+      <c r="AQ3">
         <v>0</v>
       </c>
-      <c r="AR3" s="10">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="10">
-        <v>3</v>
-      </c>
-      <c r="AT3" s="10">
-        <v>6</v>
-      </c>
-      <c r="AU3" s="10">
-        <v>8</v>
-      </c>
-      <c r="AV3" s="10">
-        <v>10</v>
-      </c>
-      <c r="AW3" s="10">
-        <v>13</v>
+      <c r="AR3">
+        <v>2</v>
+      </c>
+      <c r="AS3">
+        <v>4</v>
+      </c>
+      <c r="AT3">
+        <v>7</v>
+      </c>
+      <c r="AU3">
+        <v>9</v>
+      </c>
+      <c r="AV3">
+        <v>11</v>
+      </c>
+      <c r="AW3">
+        <v>14</v>
       </c>
       <c r="AX3" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="AY3" s="10">
+      <c r="AY3">
         <v>0</v>
       </c>
-      <c r="AZ3" s="10">
-        <v>1</v>
-      </c>
-      <c r="BA3" s="10">
-        <v>3</v>
-      </c>
-      <c r="BB3" s="10">
-        <v>6</v>
-      </c>
-      <c r="BC3" s="10">
-        <v>8</v>
-      </c>
-      <c r="BD3" s="10">
-        <v>10</v>
-      </c>
-      <c r="BE3" s="10">
-        <v>13</v>
+      <c r="AZ3">
+        <v>2</v>
+      </c>
+      <c r="BA3">
+        <v>4</v>
+      </c>
+      <c r="BB3">
+        <v>7</v>
+      </c>
+      <c r="BC3">
+        <v>9</v>
+      </c>
+      <c r="BD3">
+        <v>11</v>
+      </c>
+      <c r="BE3">
+        <v>14</v>
       </c>
       <c r="BF3" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="BG3" s="10">
+      <c r="BG3">
         <v>0</v>
       </c>
-      <c r="BH3" s="10">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="10">
-        <v>3</v>
-      </c>
-      <c r="BJ3" s="10">
-        <v>6</v>
-      </c>
-      <c r="BK3" s="10">
-        <v>8</v>
-      </c>
-      <c r="BL3" s="10">
-        <v>10</v>
-      </c>
-      <c r="BM3" s="10">
-        <v>13</v>
+      <c r="BH3">
+        <v>2</v>
+      </c>
+      <c r="BI3">
+        <v>4</v>
+      </c>
+      <c r="BJ3">
+        <v>7</v>
+      </c>
+      <c r="BK3">
+        <v>9</v>
+      </c>
+      <c r="BL3">
+        <v>11</v>
+      </c>
+      <c r="BM3">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="C4" t="s">
         <v>298</v>
       </c>
@@ -6588,7 +7131,7 @@
       <c r="I4" t="s">
         <v>303</v>
       </c>
-      <c r="J4" s="11"/>
+      <c r="J4" s="10"/>
       <c r="K4" t="s">
         <v>298</v>
       </c>
@@ -6610,136 +7153,325 @@
       <c r="Q4" t="s">
         <v>303</v>
       </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="8"/>
-      <c r="BK4" s="8"/>
-      <c r="BL4" s="8"/>
-      <c r="BM4" s="8"/>
+      <c r="R4" s="10"/>
+      <c r="S4" t="s">
+        <v>318</v>
+      </c>
+      <c r="T4" t="s">
+        <v>318</v>
+      </c>
+      <c r="U4" t="s">
+        <v>300</v>
+      </c>
+      <c r="V4" t="s">
+        <v>318</v>
+      </c>
+      <c r="W4" t="s">
+        <v>318</v>
+      </c>
+      <c r="X4" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z4" s="10"/>
+      <c r="AA4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH4" s="10"/>
+      <c r="AI4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>300</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>302</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>303</v>
+      </c>
+      <c r="AX4" s="10"/>
+      <c r="AY4" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>298</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>300</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>303</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>320</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>320</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>321</v>
+      </c>
+      <c r="BF4" s="10"/>
+      <c r="BG4" t="s">
+        <v>298</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>298</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>300</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>302</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>320</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>320</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G5" t="s">
+        <v>303</v>
+      </c>
+      <c r="H5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" t="s">
+        <v>298</v>
+      </c>
+      <c r="L5" t="s">
+        <v>300</v>
+      </c>
+      <c r="M5" t="s">
+        <v>302</v>
+      </c>
+      <c r="N5" t="s">
+        <v>302</v>
+      </c>
+      <c r="O5" t="s">
+        <v>302</v>
+      </c>
+      <c r="P5" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>303</v>
+      </c>
+      <c r="R5" s="10"/>
+      <c r="S5" t="s">
+        <v>298</v>
+      </c>
+      <c r="T5" t="s">
+        <v>298</v>
+      </c>
+      <c r="U5" t="s">
+        <v>298</v>
+      </c>
+      <c r="V5" t="s">
+        <v>298</v>
+      </c>
+      <c r="W5" t="s">
+        <v>298</v>
+      </c>
+      <c r="X5" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z5" s="10"/>
+      <c r="AA5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH5" s="10"/>
+      <c r="AI5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>318</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>320</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AP5" s="10"/>
+      <c r="AQ5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>300</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>302</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AX5" s="10"/>
+      <c r="AY5" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>298</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>300</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>302</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>303</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>303</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>303</v>
+      </c>
+      <c r="BF5" s="10"/>
+      <c r="BG5" t="s">
+        <v>298</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>300</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>303</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>321</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>323</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>323</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E5" t="s">
-        <v>300</v>
-      </c>
-      <c r="F5" t="s">
-        <v>300</v>
-      </c>
-      <c r="G5" t="s">
-        <v>300</v>
-      </c>
-      <c r="H5" t="s">
-        <v>300</v>
-      </c>
-      <c r="I5" t="s">
-        <v>300</v>
-      </c>
-      <c r="J5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="11"/>
-      <c r="AQ5" s="8"/>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8"/>
-      <c r="AV5" s="8"/>
-      <c r="AW5" s="8"/>
-      <c r="AX5" s="11"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="11"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="8"/>
-      <c r="BK5" s="8"/>
-      <c r="BL5" s="8"/>
-      <c r="BM5" s="8"/>
-    </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="10"/>
       <c r="C6" t="s">
         <v>298</v>
       </c>
@@ -6750,170 +7482,352 @@
         <v>300</v>
       </c>
       <c r="F6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G6" t="s">
+        <v>300</v>
+      </c>
+      <c r="H6" t="s">
+        <v>300</v>
+      </c>
+      <c r="I6" t="s">
+        <v>300</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="K6" t="s">
+        <v>298</v>
+      </c>
+      <c r="L6" t="s">
         <v>302</v>
       </c>
-      <c r="G6" t="s">
+      <c r="M6" t="s">
         <v>303</v>
       </c>
-      <c r="H6" t="s">
+      <c r="N6" t="s">
+        <v>317</v>
+      </c>
+      <c r="O6" t="s">
+        <v>317</v>
+      </c>
+      <c r="P6" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>318</v>
+      </c>
+      <c r="R6" s="10"/>
+      <c r="S6" t="s">
+        <v>302</v>
+      </c>
+      <c r="T6" t="s">
+        <v>302</v>
+      </c>
+      <c r="U6" t="s">
         <v>303</v>
       </c>
-      <c r="I6" t="s">
+      <c r="V6" t="s">
+        <v>302</v>
+      </c>
+      <c r="W6" t="s">
+        <v>302</v>
+      </c>
+      <c r="X6" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z6" s="10"/>
+      <c r="AA6" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>317</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH6" s="10"/>
+      <c r="AI6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AP6" s="10"/>
+      <c r="AQ6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>319</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>321</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>321</v>
+      </c>
+      <c r="AX6" s="10"/>
+      <c r="AY6" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>298</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>300</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>302</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>320</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>320</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>321</v>
+      </c>
+      <c r="BF6" s="10"/>
+      <c r="BG6" t="s">
+        <v>298</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>300</v>
+      </c>
+      <c r="BI6" t="s">
         <v>303</v>
       </c>
-      <c r="J6" s="11"/>
-      <c r="K6" t="s">
-        <v>298</v>
-      </c>
-      <c r="L6" t="s">
-        <v>300</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="BJ6" t="s">
+        <v>321</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>323</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>323</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" t="s">
+        <v>298</v>
+      </c>
+      <c r="D7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" t="s">
+        <v>300</v>
+      </c>
+      <c r="G7" t="s">
+        <v>300</v>
+      </c>
+      <c r="H7" t="s">
+        <v>300</v>
+      </c>
+      <c r="I7" t="s">
+        <v>300</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M7" t="s">
+        <v>303</v>
+      </c>
+      <c r="N7" t="s">
         <v>302</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O7" t="s">
         <v>302</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P7" t="s">
         <v>302</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q7" t="s">
+        <v>317</v>
+      </c>
+      <c r="R7" s="14"/>
+      <c r="S7" t="s">
+        <v>318</v>
+      </c>
+      <c r="T7" t="s">
+        <v>300</v>
+      </c>
+      <c r="U7" t="s">
+        <v>300</v>
+      </c>
+      <c r="V7" t="s">
+        <v>300</v>
+      </c>
+      <c r="W7" t="s">
+        <v>318</v>
+      </c>
+      <c r="X7" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z7" s="14"/>
+      <c r="AA7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>318</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AH7" s="14"/>
+      <c r="AI7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>302</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>320</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>322</v>
+      </c>
+      <c r="AP7" s="14"/>
+      <c r="AQ7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>300</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>302</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>319</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>319</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>320</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>321</v>
+      </c>
+      <c r="AX7" s="14"/>
+      <c r="AY7" t="s">
+        <v>298</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>300</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>300</v>
+      </c>
+      <c r="BB7" t="s">
         <v>303</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="BC7" t="s">
+        <v>320</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>320</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>321</v>
+      </c>
+      <c r="BF7" s="14"/>
+      <c r="BG7" t="s">
+        <v>298</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>300</v>
+      </c>
+      <c r="BI7" t="s">
         <v>303</v>
       </c>
-      <c r="R6" s="11"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="11"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
-      <c r="BI6" s="8"/>
-      <c r="BJ6" s="8"/>
-      <c r="BK6" s="8"/>
-      <c r="BL6" s="8"/>
-      <c r="BM6" s="8"/>
-    </row>
-    <row r="7" spans="1:65" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" t="s">
-        <v>298</v>
-      </c>
-      <c r="D7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G7" t="s">
-        <v>300</v>
-      </c>
-      <c r="H7" t="s">
-        <v>300</v>
-      </c>
-      <c r="I7" t="s">
-        <v>300</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="15"/>
-      <c r="AI7" s="16"/>
-      <c r="AJ7" s="16"/>
-      <c r="AK7" s="16"/>
-      <c r="AL7" s="16"/>
-      <c r="AM7" s="16"/>
-      <c r="AN7" s="16"/>
-      <c r="AO7" s="16"/>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="16"/>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="16"/>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="16"/>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="16"/>
-      <c r="AX7" s="15"/>
-      <c r="AY7" s="16"/>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16"/>
-      <c r="BC7" s="16"/>
-      <c r="BD7" s="16"/>
-      <c r="BE7" s="16"/>
-      <c r="BF7" s="15"/>
-      <c r="BG7" s="16"/>
-      <c r="BH7" s="16"/>
-      <c r="BI7" s="16"/>
-      <c r="BJ7" s="16"/>
-      <c r="BK7" s="16"/>
-      <c r="BL7" s="16"/>
-      <c r="BM7" s="16"/>
+      <c r="BJ7" t="s">
+        <v>321</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>321</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>321</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="8" spans="1:65" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8"/>

--- a/Statistics_Summary.xlsx
+++ b/Statistics_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FTrevisan\Documents\GitHub\13C-Experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFE9054-E664-4B64-B555-54693A8071A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9090EC-8EBE-4ED9-8BF3-B9FC2B387879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TwoWayAnova" sheetId="1" r:id="rId1"/>
@@ -1324,6 +1324,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1466,7 +1469,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="77" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11381,7 +11384,7 @@
   </sheetPr>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K52" sqref="K52"/>
     </sheetView>
   </sheetViews>
@@ -12735,7 +12738,7 @@
   </sheetPr>
   <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -13974,7 +13977,7 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="83" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
